--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.32035575220339</v>
+        <v>7.830804666666666</v>
       </c>
       <c r="H2">
-        <v>5.32035575220339</v>
+        <v>23.492414</v>
       </c>
       <c r="I2">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="J2">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>8.540093273761208</v>
+        <v>13.696476733038</v>
       </c>
       <c r="R2">
-        <v>8.540093273761208</v>
+        <v>123.268290597342</v>
       </c>
       <c r="S2">
-        <v>0.0004472556350383543</v>
+        <v>0.0006306233130018991</v>
       </c>
       <c r="T2">
-        <v>0.0004472556350383543</v>
+        <v>0.0006306233130018992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.32035575220339</v>
+        <v>7.830804666666666</v>
       </c>
       <c r="H3">
-        <v>5.32035575220339</v>
+        <v>23.492414</v>
       </c>
       <c r="I3">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="J3">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>757.8075189257343</v>
+        <v>1120.083478541916</v>
       </c>
       <c r="R3">
-        <v>757.8075189257343</v>
+        <v>10080.75130687724</v>
       </c>
       <c r="S3">
-        <v>0.03968735144325848</v>
+        <v>0.05157171204277434</v>
       </c>
       <c r="T3">
-        <v>0.03968735144325848</v>
+        <v>0.05157171204277434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.32035575220339</v>
+        <v>7.830804666666666</v>
       </c>
       <c r="H4">
-        <v>5.32035575220339</v>
+        <v>23.492414</v>
       </c>
       <c r="I4">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="J4">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>647.0328000698674</v>
+        <v>1039.968541565389</v>
       </c>
       <c r="R4">
-        <v>647.0328000698674</v>
+        <v>9359.716874088504</v>
       </c>
       <c r="S4">
-        <v>0.03388593737904703</v>
+        <v>0.04788300085362539</v>
       </c>
       <c r="T4">
-        <v>0.03388593737904703</v>
+        <v>0.0478830008536254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.32035575220339</v>
+        <v>7.830804666666666</v>
       </c>
       <c r="H5">
-        <v>5.32035575220339</v>
+        <v>23.492414</v>
       </c>
       <c r="I5">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="J5">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>664.5873856518417</v>
+        <v>984.3884031007253</v>
       </c>
       <c r="R5">
-        <v>664.5873856518417</v>
+        <v>8859.495627906528</v>
       </c>
       <c r="S5">
-        <v>0.03480529353484264</v>
+        <v>0.04532393900590624</v>
       </c>
       <c r="T5">
-        <v>0.03480529353484264</v>
+        <v>0.04532393900590624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.32035575220339</v>
+        <v>7.830804666666666</v>
       </c>
       <c r="H6">
-        <v>5.32035575220339</v>
+        <v>23.492414</v>
       </c>
       <c r="I6">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="J6">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>280.2076637509819</v>
+        <v>419.6252707055811</v>
       </c>
       <c r="R6">
-        <v>280.2076637509819</v>
+        <v>3776.62743635023</v>
       </c>
       <c r="S6">
-        <v>0.01467483463893878</v>
+        <v>0.01932069710988922</v>
       </c>
       <c r="T6">
-        <v>0.01467483463893878</v>
+        <v>0.01932069710988923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.32035575220339</v>
+        <v>7.830804666666666</v>
       </c>
       <c r="H7">
-        <v>5.32035575220339</v>
+        <v>23.492414</v>
       </c>
       <c r="I7">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="J7">
-        <v>0.1295427527292644</v>
+        <v>0.1730236402234635</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>115.3701005940811</v>
+        <v>180.1297653577351</v>
       </c>
       <c r="R7">
-        <v>115.3701005940811</v>
+        <v>1621.167888219616</v>
       </c>
       <c r="S7">
-        <v>0.006042080098139144</v>
+        <v>0.008293667898266377</v>
       </c>
       <c r="T7">
-        <v>0.006042080098139144</v>
+        <v>0.008293667898266379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.4873509341083</v>
+        <v>24.51775333333333</v>
       </c>
       <c r="H8">
-        <v>24.4873509341083</v>
+        <v>73.55325999999999</v>
       </c>
       <c r="I8">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="J8">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>39.30644316745193</v>
+        <v>42.88280098542</v>
       </c>
       <c r="R8">
-        <v>39.30644316745193</v>
+        <v>385.94520886878</v>
       </c>
       <c r="S8">
-        <v>0.002058528828247229</v>
+        <v>0.001974441643301964</v>
       </c>
       <c r="T8">
-        <v>0.002058528828247229</v>
+        <v>0.001974441643301964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.4873509341083</v>
+        <v>24.51775333333333</v>
       </c>
       <c r="H9">
-        <v>24.4873509341083</v>
+        <v>73.55325999999999</v>
       </c>
       <c r="I9">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="J9">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>3487.868014982877</v>
+        <v>3506.910414523511</v>
       </c>
       <c r="R9">
-        <v>3487.868014982877</v>
+        <v>31562.1937307116</v>
       </c>
       <c r="S9">
-        <v>0.1826641201641224</v>
+        <v>0.1614677633608582</v>
       </c>
       <c r="T9">
-        <v>0.1826641201641224</v>
+        <v>0.1614677633608582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.4873509341083</v>
+        <v>24.51775333333333</v>
       </c>
       <c r="H10">
-        <v>24.4873509341083</v>
+        <v>73.55325999999999</v>
       </c>
       <c r="I10">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="J10">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>2978.018760235693</v>
+        <v>3256.075622095706</v>
       </c>
       <c r="R10">
-        <v>2978.018760235693</v>
+        <v>29304.68059886136</v>
       </c>
       <c r="S10">
-        <v>0.1559626609533199</v>
+        <v>0.1499186423058495</v>
       </c>
       <c r="T10">
-        <v>0.1559626609533199</v>
+        <v>0.1499186423058495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.4873509341083</v>
+        <v>24.51775333333333</v>
       </c>
       <c r="H11">
-        <v>24.4873509341083</v>
+        <v>73.55325999999999</v>
       </c>
       <c r="I11">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="J11">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>3058.815105004671</v>
+        <v>3082.057729539946</v>
       </c>
       <c r="R11">
-        <v>3058.815105004671</v>
+        <v>27738.51956585952</v>
       </c>
       <c r="S11">
-        <v>0.1601940691276843</v>
+        <v>0.141906381776073</v>
       </c>
       <c r="T11">
-        <v>0.1601940691276843</v>
+        <v>0.141906381776073</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.4873509341083</v>
+        <v>24.51775333333333</v>
       </c>
       <c r="H12">
-        <v>24.4873509341083</v>
+        <v>73.55325999999999</v>
       </c>
       <c r="I12">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="J12">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>1289.677554711496</v>
+        <v>1313.820139504522</v>
       </c>
       <c r="R12">
-        <v>1289.677554711496</v>
+        <v>11824.3812555407</v>
       </c>
       <c r="S12">
-        <v>0.06754206719257087</v>
+        <v>0.06049187869347657</v>
       </c>
       <c r="T12">
-        <v>0.06754206719257087</v>
+        <v>0.06049187869347657</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.4873509341083</v>
+        <v>24.51775333333333</v>
       </c>
       <c r="H13">
-        <v>24.4873509341083</v>
+        <v>73.55325999999999</v>
       </c>
       <c r="I13">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="J13">
-        <v>0.5962305896063784</v>
+        <v>0.541726056568851</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>530.9998564251349</v>
+        <v>563.9748841943822</v>
       </c>
       <c r="R13">
-        <v>530.9998564251349</v>
+        <v>5075.773957749439</v>
       </c>
       <c r="S13">
-        <v>0.02780914334043365</v>
+        <v>0.02596694878929174</v>
       </c>
       <c r="T13">
-        <v>0.02780914334043365</v>
+        <v>0.02596694878929175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>11.2625627043857</v>
+        <v>0.2013913333333333</v>
       </c>
       <c r="H14">
-        <v>11.2625627043857</v>
+        <v>0.604174</v>
       </c>
       <c r="I14">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481909</v>
       </c>
       <c r="J14">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481908</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>18.07836552230637</v>
+        <v>0.3522437129580001</v>
       </c>
       <c r="R14">
-        <v>18.07836552230637</v>
+        <v>3.170193416622</v>
       </c>
       <c r="S14">
-        <v>0.0009467871828727185</v>
+        <v>1.621826558605725E-05</v>
       </c>
       <c r="T14">
-        <v>0.0009467871828727185</v>
+        <v>1.621826558605725E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>11.2625627043857</v>
+        <v>0.2013913333333333</v>
       </c>
       <c r="H15">
-        <v>11.2625627043857</v>
+        <v>0.604174</v>
       </c>
       <c r="I15">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481909</v>
       </c>
       <c r="J15">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481908</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>1604.188722947968</v>
+        <v>28.80612079987112</v>
       </c>
       <c r="R15">
-        <v>1604.188722947968</v>
+        <v>259.25508719884</v>
       </c>
       <c r="S15">
-        <v>0.08401342034610686</v>
+        <v>0.001326312721703744</v>
       </c>
       <c r="T15">
-        <v>0.08401342034610686</v>
+        <v>0.001326312721703744</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>11.2625627043857</v>
+        <v>0.2013913333333333</v>
       </c>
       <c r="H16">
-        <v>11.2625627043857</v>
+        <v>0.604174</v>
       </c>
       <c r="I16">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481909</v>
       </c>
       <c r="J16">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481908</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>1369.691769119607</v>
+        <v>26.74573816176267</v>
       </c>
       <c r="R16">
-        <v>1369.691769119607</v>
+        <v>240.711643455864</v>
       </c>
       <c r="S16">
-        <v>0.0717325141970722</v>
+        <v>0.0012314470602186</v>
       </c>
       <c r="T16">
-        <v>0.0717325141970722</v>
+        <v>0.0012314470602186</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>11.2625627043857</v>
+        <v>0.2013913333333333</v>
       </c>
       <c r="H17">
-        <v>11.2625627043857</v>
+        <v>0.604174</v>
       </c>
       <c r="I17">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481909</v>
       </c>
       <c r="J17">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481908</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>1406.852746707357</v>
+        <v>25.31633739533867</v>
       </c>
       <c r="R17">
-        <v>1406.852746707357</v>
+        <v>227.847036558048</v>
       </c>
       <c r="S17">
-        <v>0.0736786822419483</v>
+        <v>0.001165633532805714</v>
       </c>
       <c r="T17">
-        <v>0.0736786822419483</v>
+        <v>0.001165633532805713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>11.2625627043857</v>
+        <v>0.2013913333333333</v>
       </c>
       <c r="H18">
-        <v>11.2625627043857</v>
+        <v>0.604174</v>
       </c>
       <c r="I18">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481909</v>
       </c>
       <c r="J18">
-        <v>0.2742266576643572</v>
+        <v>0.004449793231481908</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>593.1664216134195</v>
+        <v>10.79185299149222</v>
       </c>
       <c r="R18">
-        <v>593.1664216134195</v>
+        <v>97.12667692343</v>
       </c>
       <c r="S18">
-        <v>0.03106488607065255</v>
+        <v>0.0004968864781486574</v>
       </c>
       <c r="T18">
-        <v>0.03106488607065255</v>
+        <v>0.0004968864781486574</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2013913333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.604174</v>
+      </c>
+      <c r="I19">
+        <v>0.004449793231481909</v>
+      </c>
+      <c r="J19">
+        <v>0.004449793231481908</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N19">
+        <v>69.008144</v>
+      </c>
+      <c r="O19">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P19">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q19">
+        <v>4.632547377006222</v>
+      </c>
+      <c r="R19">
+        <v>41.692926393056</v>
+      </c>
+      <c r="S19">
+        <v>0.0002132951730191368</v>
+      </c>
+      <c r="T19">
+        <v>0.0002132951730191368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.068657</v>
+      </c>
+      <c r="H20">
+        <v>0.205971</v>
+      </c>
+      <c r="I20">
+        <v>0.001516994047545178</v>
+      </c>
+      <c r="J20">
+        <v>0.001516994047545177</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.749051</v>
+      </c>
+      <c r="N20">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P20">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q20">
+        <v>0.120084594507</v>
+      </c>
+      <c r="R20">
+        <v>1.080761350563</v>
+      </c>
+      <c r="S20">
+        <v>5.529023726651257E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.529023726651257E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.068657</v>
+      </c>
+      <c r="H21">
+        <v>0.205971</v>
+      </c>
+      <c r="I21">
+        <v>0.001516994047545178</v>
+      </c>
+      <c r="J21">
+        <v>0.001516994047545177</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N21">
+        <v>429.10666</v>
+      </c>
+      <c r="O21">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P21">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q21">
+        <v>9.820391985206667</v>
+      </c>
+      <c r="R21">
+        <v>88.38352786686001</v>
+      </c>
+      <c r="S21">
+        <v>0.0004521577519092876</v>
+      </c>
+      <c r="T21">
+        <v>0.0004521577519092875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.068657</v>
+      </c>
+      <c r="H22">
+        <v>0.205971</v>
+      </c>
+      <c r="I22">
+        <v>0.001516994047545178</v>
+      </c>
+      <c r="J22">
+        <v>0.001516994047545177</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>132.804812</v>
+      </c>
+      <c r="N22">
+        <v>398.414436</v>
+      </c>
+      <c r="O22">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P22">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q22">
+        <v>9.117979977484</v>
+      </c>
+      <c r="R22">
+        <v>82.06181979735599</v>
+      </c>
+      <c r="S22">
+        <v>0.0004198167786768136</v>
+      </c>
+      <c r="T22">
+        <v>0.0004198167786768136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.068657</v>
+      </c>
+      <c r="H23">
+        <v>0.205971</v>
+      </c>
+      <c r="I23">
+        <v>0.001516994047545178</v>
+      </c>
+      <c r="J23">
+        <v>0.001516994047545177</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>125.707184</v>
+      </c>
+      <c r="N23">
+        <v>377.121552</v>
+      </c>
+      <c r="O23">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P23">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q23">
+        <v>8.630678131887999</v>
+      </c>
+      <c r="R23">
+        <v>77.67610318699199</v>
+      </c>
+      <c r="S23">
+        <v>0.0003973800666455782</v>
+      </c>
+      <c r="T23">
+        <v>0.0003973800666455782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.068657</v>
+      </c>
+      <c r="H24">
+        <v>0.205971</v>
+      </c>
+      <c r="I24">
+        <v>0.001516994047545178</v>
+      </c>
+      <c r="J24">
+        <v>0.001516994047545177</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N24">
+        <v>160.759445</v>
+      </c>
+      <c r="O24">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P24">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q24">
+        <v>3.679087071788333</v>
+      </c>
+      <c r="R24">
+        <v>33.111783646095</v>
+      </c>
+      <c r="S24">
+        <v>0.0001693952483734108</v>
+      </c>
+      <c r="T24">
+        <v>0.0001693952483734108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.068657</v>
+      </c>
+      <c r="H25">
+        <v>0.205971</v>
+      </c>
+      <c r="I25">
+        <v>0.001516994047545178</v>
+      </c>
+      <c r="J25">
+        <v>0.001516994047545177</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N25">
+        <v>69.008144</v>
+      </c>
+      <c r="O25">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P25">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q25">
+        <v>1.579297380869333</v>
+      </c>
+      <c r="R25">
+        <v>14.213676427824</v>
+      </c>
+      <c r="S25">
+        <v>7.271517821343622E-05</v>
+      </c>
+      <c r="T25">
+        <v>7.271517821343623E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.019859</v>
+      </c>
+      <c r="H26">
+        <v>0.059577</v>
+      </c>
+      <c r="I26">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="J26">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.749051</v>
+      </c>
+      <c r="N26">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P26">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q26">
+        <v>0.034734403809</v>
+      </c>
+      <c r="R26">
+        <v>0.312609634281</v>
+      </c>
+      <c r="S26">
+        <v>1.599267113150404E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.599267113150404E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.019859</v>
+      </c>
+      <c r="H27">
+        <v>0.059577</v>
+      </c>
+      <c r="I27">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="J27">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N27">
+        <v>429.10666</v>
+      </c>
+      <c r="O27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q27">
+        <v>2.840543053646667</v>
+      </c>
+      <c r="R27">
+        <v>25.56488748282</v>
+      </c>
+      <c r="S27">
+        <v>0.0001307863844206205</v>
+      </c>
+      <c r="T27">
+        <v>0.0001307863844206205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.2625627043857</v>
-      </c>
-      <c r="H19">
-        <v>11.2625627043857</v>
-      </c>
-      <c r="I19">
-        <v>0.2742266576643572</v>
-      </c>
-      <c r="J19">
-        <v>0.2742266576643572</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N19">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O19">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P19">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q19">
-        <v>244.2248324492215</v>
-      </c>
-      <c r="R19">
-        <v>244.2248324492215</v>
-      </c>
-      <c r="S19">
-        <v>0.01279036762570451</v>
-      </c>
-      <c r="T19">
-        <v>0.01279036762570451</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.019859</v>
+      </c>
+      <c r="H28">
+        <v>0.059577</v>
+      </c>
+      <c r="I28">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="J28">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>132.804812</v>
+      </c>
+      <c r="N28">
+        <v>398.414436</v>
+      </c>
+      <c r="O28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q28">
+        <v>2.637370761508</v>
+      </c>
+      <c r="R28">
+        <v>23.736336853572</v>
+      </c>
+      <c r="S28">
+        <v>0.0001214317754597905</v>
+      </c>
+      <c r="T28">
+        <v>0.0001214317754597906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.019859</v>
+      </c>
+      <c r="H29">
+        <v>0.059577</v>
+      </c>
+      <c r="I29">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="J29">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>125.707184</v>
+      </c>
+      <c r="N29">
+        <v>377.121552</v>
+      </c>
+      <c r="O29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q29">
+        <v>2.496418967056</v>
+      </c>
+      <c r="R29">
+        <v>22.467770703504</v>
+      </c>
+      <c r="S29">
+        <v>0.0001149419686778411</v>
+      </c>
+      <c r="T29">
+        <v>0.0001149419686778411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.019859</v>
+      </c>
+      <c r="H30">
+        <v>0.059577</v>
+      </c>
+      <c r="I30">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="J30">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N30">
+        <v>160.759445</v>
+      </c>
+      <c r="O30">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P30">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q30">
+        <v>1.064173939418333</v>
+      </c>
+      <c r="R30">
+        <v>9.577565454764999</v>
+      </c>
+      <c r="S30">
+        <v>4.899748368626018E-05</v>
+      </c>
+      <c r="T30">
+        <v>4.899748368626018E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.019859</v>
+      </c>
+      <c r="H31">
+        <v>0.059577</v>
+      </c>
+      <c r="I31">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="J31">
+        <v>0.000438789705204126</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>0.4568109105653333</v>
+      </c>
+      <c r="R31">
+        <v>4.111298195088</v>
+      </c>
+      <c r="S31">
+        <v>2.103282584646329E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.103282584646329E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.620117</v>
+      </c>
+      <c r="H32">
+        <v>37.860351</v>
+      </c>
+      <c r="I32">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="J32">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.749051</v>
+      </c>
+      <c r="N32">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P32">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q32">
+        <v>22.07322825896701</v>
+      </c>
+      <c r="R32">
+        <v>198.659054330703</v>
+      </c>
+      <c r="S32">
+        <v>0.001016311903026856</v>
+      </c>
+      <c r="T32">
+        <v>0.001016311903026857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.620117</v>
+      </c>
+      <c r="H33">
+        <v>37.860351</v>
+      </c>
+      <c r="I33">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="J33">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N33">
+        <v>429.10666</v>
+      </c>
+      <c r="O33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q33">
+        <v>1805.125418226407</v>
+      </c>
+      <c r="R33">
+        <v>16246.12876403766</v>
+      </c>
+      <c r="S33">
+        <v>0.08311291975402628</v>
+      </c>
+      <c r="T33">
+        <v>0.08311291975402628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.620117</v>
+      </c>
+      <c r="H34">
+        <v>37.860351</v>
+      </c>
+      <c r="I34">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="J34">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.804812</v>
+      </c>
+      <c r="N34">
+        <v>398.414436</v>
+      </c>
+      <c r="O34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q34">
+        <v>1676.012265603004</v>
+      </c>
+      <c r="R34">
+        <v>15084.11039042704</v>
+      </c>
+      <c r="S34">
+        <v>0.07716819647617129</v>
+      </c>
+      <c r="T34">
+        <v>0.07716819647617131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.620117</v>
+      </c>
+      <c r="H35">
+        <v>37.860351</v>
+      </c>
+      <c r="I35">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="J35">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>125.707184</v>
+      </c>
+      <c r="N35">
+        <v>377.121552</v>
+      </c>
+      <c r="O35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q35">
+        <v>1586.439369820528</v>
+      </c>
+      <c r="R35">
+        <v>14277.95432838475</v>
+      </c>
+      <c r="S35">
+        <v>0.0730440149516436</v>
+      </c>
+      <c r="T35">
+        <v>0.0730440149516436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.620117</v>
+      </c>
+      <c r="H36">
+        <v>37.860351</v>
+      </c>
+      <c r="I36">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="J36">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N36">
+        <v>160.759445</v>
+      </c>
+      <c r="O36">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P36">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q36">
+        <v>676.2676682516883</v>
+      </c>
+      <c r="R36">
+        <v>6086.409014265195</v>
+      </c>
+      <c r="S36">
+        <v>0.03113721621562993</v>
+      </c>
+      <c r="T36">
+        <v>0.03113721621562994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.620117</v>
+      </c>
+      <c r="H37">
+        <v>37.860351</v>
+      </c>
+      <c r="I37">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="J37">
+        <v>0.2788447262234544</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N37">
+        <v>69.008144</v>
+      </c>
+      <c r="O37">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P37">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q37">
+        <v>290.2969504109493</v>
+      </c>
+      <c r="R37">
+        <v>2612.672553698544</v>
+      </c>
+      <c r="S37">
+        <v>0.01336606692295638</v>
+      </c>
+      <c r="T37">
+        <v>0.01336606692295638</v>
       </c>
     </row>
   </sheetData>
